--- a/data/extracted/Congressional Election Results by State (2006 - 110th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2006 - 110th).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504EF45C-ABEA-5643-827D-6411E0DA5FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7A70E8-034C-D64A-A7F9-329943F58E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="500" windowWidth="23300" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2156,7 +2156,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2877,7 +2877,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5480,10 +5480,10 @@
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9359,7 +9359,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9404,10 +9404,10 @@
         <v>21</v>
       </c>
       <c r="C2">
+        <v>627501</v>
+      </c>
+      <c r="D2">
         <v>502046</v>
-      </c>
-      <c r="D2">
-        <v>627501</v>
       </c>
       <c r="E2">
         <v>10605</v>
@@ -9416,10 +9416,10 @@
         <v>1140152</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>2</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -9436,10 +9436,10 @@
         <v>23</v>
       </c>
       <c r="C3">
+        <v>132743</v>
+      </c>
+      <c r="D3">
         <v>93879</v>
-      </c>
-      <c r="D3">
-        <v>132743</v>
       </c>
       <c r="E3">
         <v>8023</v>
@@ -9448,10 +9448,10 @@
         <v>234645</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -9468,10 +9468,10 @@
         <v>25</v>
       </c>
       <c r="C4">
+        <v>771246</v>
+      </c>
+      <c r="D4">
         <v>627259</v>
-      </c>
-      <c r="D4">
-        <v>771246</v>
       </c>
       <c r="E4">
         <v>94645</v>
@@ -9500,10 +9500,10 @@
         <v>27</v>
       </c>
       <c r="C5">
+        <v>306442</v>
+      </c>
+      <c r="D5">
         <v>456569</v>
-      </c>
-      <c r="D5">
-        <v>306442</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9512,10 +9512,10 @@
         <v>763011</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -9532,10 +9532,10 @@
         <v>29</v>
       </c>
       <c r="C6">
+        <v>3314398</v>
+      </c>
+      <c r="D6">
         <v>4720164</v>
-      </c>
-      <c r="D6">
-        <v>3314398</v>
       </c>
       <c r="E6">
         <v>261221</v>
@@ -9544,10 +9544,10 @@
         <v>8295783</v>
       </c>
       <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
         <v>34</v>
-      </c>
-      <c r="H6">
-        <v>19</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>31</v>
       </c>
       <c r="C7">
+        <v>623858</v>
+      </c>
+      <c r="D7">
         <v>832902</v>
-      </c>
-      <c r="D7">
-        <v>623858</v>
       </c>
       <c r="E7">
         <v>82148</v>
@@ -9576,10 +9576,10 @@
         <v>1538908</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>4</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -9596,10 +9596,10 @@
         <v>33</v>
       </c>
       <c r="C8">
+        <v>419895</v>
+      </c>
+      <c r="D8">
         <v>648653</v>
-      </c>
-      <c r="D8">
-        <v>419895</v>
       </c>
       <c r="E8">
         <v>6191</v>
@@ -9608,10 +9608,10 @@
         <v>1074739</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>4</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -9628,10 +9628,10 @@
         <v>35</v>
       </c>
       <c r="C9">
+        <v>143897</v>
+      </c>
+      <c r="D9">
         <v>97565</v>
-      </c>
-      <c r="D9">
-        <v>143897</v>
       </c>
       <c r="E9">
         <v>10232</v>
@@ -9640,10 +9640,10 @@
         <v>251694</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -9660,10 +9660,10 @@
         <v>37</v>
       </c>
       <c r="C10">
+        <v>2182833</v>
+      </c>
+      <c r="D10">
         <v>1599968</v>
-      </c>
-      <c r="D10">
-        <v>2182833</v>
       </c>
       <c r="E10">
         <v>69141</v>
@@ -9672,10 +9672,10 @@
         <v>3851942</v>
       </c>
       <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
         <v>9</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -9692,10 +9692,10 @@
         <v>39</v>
       </c>
       <c r="C11">
+        <v>1138048</v>
+      </c>
+      <c r="D11">
         <v>932143</v>
-      </c>
-      <c r="D11">
-        <v>1138048</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -9704,10 +9704,10 @@
         <v>2070191</v>
       </c>
       <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
         <v>6</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -9724,10 +9724,10 @@
         <v>41</v>
       </c>
       <c r="C12">
+        <v>118134</v>
+      </c>
+      <c r="D12">
         <v>219810</v>
-      </c>
-      <c r="D12">
-        <v>118134</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>337944</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>2</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -9756,10 +9756,10 @@
         <v>43</v>
       </c>
       <c r="C13">
+        <v>248105</v>
+      </c>
+      <c r="D13">
         <v>177376</v>
-      </c>
-      <c r="D13">
-        <v>248105</v>
       </c>
       <c r="E13">
         <v>19825</v>
@@ -9768,10 +9768,10 @@
         <v>445306</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>45</v>
       </c>
       <c r="C14">
+        <v>1442526</v>
+      </c>
+      <c r="D14">
         <v>1986431</v>
-      </c>
-      <c r="D14">
-        <v>1442526</v>
       </c>
       <c r="E14">
         <v>23624</v>
@@ -9800,10 +9800,10 @@
         <v>3452581</v>
       </c>
       <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
         <v>11</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -9820,10 +9820,10 @@
         <v>47</v>
       </c>
       <c r="C15">
+        <v>831818</v>
+      </c>
+      <c r="D15">
         <v>812496</v>
-      </c>
-      <c r="D15">
-        <v>831818</v>
       </c>
       <c r="E15">
         <v>22608</v>
@@ -9832,10 +9832,10 @@
         <v>1666922</v>
       </c>
       <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
         <v>5</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -9852,10 +9852,10 @@
         <v>49</v>
       </c>
       <c r="C16">
+        <v>522388</v>
+      </c>
+      <c r="D16">
         <v>492937</v>
-      </c>
-      <c r="D16">
-        <v>522388</v>
       </c>
       <c r="E16">
         <v>17656</v>
@@ -9864,10 +9864,10 @@
         <v>1032981</v>
       </c>
       <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>51</v>
       </c>
       <c r="C17">
+        <v>459267</v>
+      </c>
+      <c r="D17">
         <v>369191</v>
-      </c>
-      <c r="D17">
-        <v>459267</v>
       </c>
       <c r="E17">
         <v>16669</v>
@@ -9916,10 +9916,10 @@
         <v>53</v>
       </c>
       <c r="C18">
+        <v>611780</v>
+      </c>
+      <c r="D18">
         <v>601723</v>
-      </c>
-      <c r="D18">
-        <v>611780</v>
       </c>
       <c r="E18">
         <v>40023</v>
@@ -9928,10 +9928,10 @@
         <v>1253526</v>
       </c>
       <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
         <v>2</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>55</v>
       </c>
       <c r="C19">
+        <v>579702</v>
+      </c>
+      <c r="D19">
         <v>309279</v>
-      </c>
-      <c r="D19">
-        <v>579702</v>
       </c>
       <c r="E19">
         <v>27034</v>
@@ -9960,10 +9960,10 @@
         <v>916015</v>
       </c>
       <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
         <v>3</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -9980,10 +9980,10 @@
         <v>57</v>
       </c>
       <c r="C20">
+        <v>163165</v>
+      </c>
+      <c r="D20">
         <v>350721</v>
-      </c>
-      <c r="D20">
-        <v>163165</v>
       </c>
       <c r="E20">
         <v>22029</v>
@@ -9992,10 +9992,10 @@
         <v>535915</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -10012,10 +10012,10 @@
         <v>59</v>
       </c>
       <c r="C21">
+        <v>546862</v>
+      </c>
+      <c r="D21">
         <v>1099441</v>
-      </c>
-      <c r="D21">
-        <v>546862</v>
       </c>
       <c r="E21">
         <v>54899</v>
@@ -10024,10 +10024,10 @@
         <v>1701202</v>
       </c>
       <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
         <v>6</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -10044,10 +10044,10 @@
         <v>61</v>
       </c>
       <c r="C22">
+        <v>198550</v>
+      </c>
+      <c r="D22">
         <v>1632307</v>
-      </c>
-      <c r="D22">
-        <v>198550</v>
       </c>
       <c r="E22">
         <v>412978</v>
@@ -10056,10 +10056,10 @@
         <v>2243835</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -10076,10 +10076,10 @@
         <v>63</v>
       </c>
       <c r="C23">
+        <v>1624865</v>
+      </c>
+      <c r="D23">
         <v>1923485</v>
-      </c>
-      <c r="D23">
-        <v>1624865</v>
       </c>
       <c r="E23">
         <v>98076</v>
@@ -10088,10 +10088,10 @@
         <v>3646426</v>
       </c>
       <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
         <v>6</v>
-      </c>
-      <c r="H23">
-        <v>9</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -10108,10 +10108,10 @@
         <v>65</v>
       </c>
       <c r="C24">
+        <v>924636</v>
+      </c>
+      <c r="D24">
         <v>1152621</v>
-      </c>
-      <c r="D24">
-        <v>924636</v>
       </c>
       <c r="E24">
         <v>101717</v>
@@ -10120,10 +10120,10 @@
         <v>2178974</v>
       </c>
       <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
         <v>5</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -10140,10 +10140,10 @@
         <v>67</v>
       </c>
       <c r="C25">
+        <v>304308</v>
+      </c>
+      <c r="D25">
         <v>260330</v>
-      </c>
-      <c r="D25">
-        <v>304308</v>
       </c>
       <c r="E25">
         <v>36059</v>
@@ -10172,10 +10172,10 @@
         <v>69</v>
       </c>
       <c r="C26">
+        <v>1049346</v>
+      </c>
+      <c r="D26">
         <v>992258</v>
-      </c>
-      <c r="D26">
-        <v>1049346</v>
       </c>
       <c r="E26">
         <v>55718</v>
@@ -10184,10 +10184,10 @@
         <v>2097322</v>
       </c>
       <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
         <v>4</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -10204,10 +10204,10 @@
         <v>71</v>
       </c>
       <c r="C27">
+        <v>239124</v>
+      </c>
+      <c r="D27">
         <v>158916</v>
-      </c>
-      <c r="D27">
-        <v>239124</v>
       </c>
       <c r="E27">
         <v>8085</v>
@@ -10216,10 +10216,10 @@
         <v>406125</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -10236,10 +10236,10 @@
         <v>73</v>
       </c>
       <c r="C28">
+        <v>334177</v>
+      </c>
+      <c r="D28">
         <v>261910</v>
-      </c>
-      <c r="D28">
-        <v>334177</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>596087</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -10268,10 +10268,10 @@
         <v>75</v>
       </c>
       <c r="C29">
+        <v>260317</v>
+      </c>
+      <c r="D29">
         <v>287879</v>
-      </c>
-      <c r="D29">
-        <v>260317</v>
       </c>
       <c r="E29">
         <v>26631</v>
@@ -10280,10 +10280,10 @@
         <v>574827</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -10300,10 +10300,10 @@
         <v>77</v>
       </c>
       <c r="C30">
+        <v>189615</v>
+      </c>
+      <c r="D30">
         <v>209434</v>
-      </c>
-      <c r="D30">
-        <v>189615</v>
       </c>
       <c r="E30">
         <v>3620</v>
@@ -10312,10 +10312,10 @@
         <v>402669</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>2</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -10332,10 +10332,10 @@
         <v>79</v>
       </c>
       <c r="C31">
+        <v>903176</v>
+      </c>
+      <c r="D31">
         <v>1207782</v>
-      </c>
-      <c r="D31">
-        <v>903176</v>
       </c>
       <c r="E31">
         <v>25882</v>
@@ -10344,10 +10344,10 @@
         <v>2136840</v>
       </c>
       <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
         <v>7</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>81</v>
       </c>
       <c r="C32">
+        <v>247825</v>
+      </c>
+      <c r="D32">
         <v>313259</v>
-      </c>
-      <c r="D32">
-        <v>247825</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -10376,10 +10376,10 @@
         <v>561084</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -10396,10 +10396,10 @@
         <v>83</v>
       </c>
       <c r="C33">
+        <v>1160460</v>
+      </c>
+      <c r="D33">
         <v>2537778</v>
-      </c>
-      <c r="D33">
-        <v>1160460</v>
       </c>
       <c r="E33">
         <v>988959</v>
@@ -10408,10 +10408,10 @@
         <v>4687197</v>
       </c>
       <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
         <v>23</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>85</v>
       </c>
       <c r="C34">
+        <v>913893</v>
+      </c>
+      <c r="D34">
         <v>1026915</v>
-      </c>
-      <c r="D34">
-        <v>913893</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>1940808</v>
       </c>
       <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
         <v>7</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -10460,10 +10460,10 @@
         <v>87</v>
       </c>
       <c r="C35">
+        <v>74687</v>
+      </c>
+      <c r="D35">
         <v>142934</v>
-      </c>
-      <c r="D35">
-        <v>74687</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -10472,10 +10472,10 @@
         <v>217621</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -10492,10 +10492,10 @@
         <v>89</v>
       </c>
       <c r="C36">
+        <v>1870390</v>
+      </c>
+      <c r="D36">
         <v>2081737</v>
-      </c>
-      <c r="D36">
-        <v>1870390</v>
       </c>
       <c r="E36">
         <v>9068</v>
@@ -10504,10 +10504,10 @@
         <v>3961195</v>
       </c>
       <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36">
         <v>7</v>
-      </c>
-      <c r="H36">
-        <v>11</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>91</v>
       </c>
       <c r="C37">
+        <v>518025</v>
+      </c>
+      <c r="D37">
         <v>372888</v>
-      </c>
-      <c r="D37">
-        <v>518025</v>
       </c>
       <c r="E37">
         <v>14281</v>
@@ -10536,10 +10536,10 @@
         <v>905194</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -10556,10 +10556,10 @@
         <v>93</v>
       </c>
       <c r="C38">
+        <v>557491</v>
+      </c>
+      <c r="D38">
         <v>765853</v>
-      </c>
-      <c r="D38">
-        <v>557491</v>
       </c>
       <c r="E38">
         <v>34090</v>
@@ -10568,10 +10568,10 @@
         <v>1357434</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>4</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>95</v>
       </c>
       <c r="C39">
+        <v>1732163</v>
+      </c>
+      <c r="D39">
         <v>2229091</v>
-      </c>
-      <c r="D39">
-        <v>1732163</v>
       </c>
       <c r="E39">
         <v>52134</v>
@@ -10600,10 +10600,10 @@
         <v>4013388</v>
       </c>
       <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39">
         <v>11</v>
-      </c>
-      <c r="H39">
-        <v>8</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -10620,10 +10620,10 @@
         <v>97</v>
       </c>
       <c r="C40">
+        <v>41836</v>
+      </c>
+      <c r="D40">
         <v>264949</v>
-      </c>
-      <c r="D40">
-        <v>41836</v>
       </c>
       <c r="E40">
         <v>66363</v>
@@ -10632,10 +10632,10 @@
         <v>373148</v>
       </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -10652,10 +10652,10 @@
         <v>99</v>
       </c>
       <c r="C41">
+        <v>599615</v>
+      </c>
+      <c r="D41">
         <v>472719</v>
-      </c>
-      <c r="D41">
-        <v>599615</v>
       </c>
       <c r="E41">
         <v>13872</v>
@@ -10664,10 +10664,10 @@
         <v>1086206</v>
       </c>
       <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
         <v>2</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -10684,10 +10684,10 @@
         <v>101</v>
       </c>
       <c r="C42">
+        <v>97864</v>
+      </c>
+      <c r="D42">
         <v>230468</v>
-      </c>
-      <c r="D42">
-        <v>97864</v>
       </c>
       <c r="E42">
         <v>5230</v>
@@ -10696,10 +10696,10 @@
         <v>333562</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -10716,10 +10716,10 @@
         <v>103</v>
       </c>
       <c r="C43">
+        <v>799547</v>
+      </c>
+      <c r="D43">
         <v>860861</v>
-      </c>
-      <c r="D43">
-        <v>799547</v>
       </c>
       <c r="E43">
         <v>55018</v>
@@ -10728,10 +10728,10 @@
         <v>1715426</v>
       </c>
       <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
         <v>5</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -10748,10 +10748,10 @@
         <v>105</v>
       </c>
       <c r="C44">
+        <v>2093937</v>
+      </c>
+      <c r="D44">
         <v>1830586</v>
-      </c>
-      <c r="D44">
-        <v>2093937</v>
       </c>
       <c r="E44">
         <v>216268</v>
@@ -10760,10 +10760,10 @@
         <v>4140791</v>
       </c>
       <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
         <v>12</v>
-      </c>
-      <c r="H44">
-        <v>20</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -10780,10 +10780,10 @@
         <v>107</v>
       </c>
       <c r="C45">
+        <v>292235</v>
+      </c>
+      <c r="D45">
         <v>244483</v>
-      </c>
-      <c r="D45">
-        <v>292235</v>
       </c>
       <c r="E45">
         <v>32972</v>
@@ -10792,10 +10792,10 @@
         <v>569690</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -10812,10 +10812,10 @@
         <v>109</v>
       </c>
       <c r="C46">
+        <v>117023</v>
+      </c>
+      <c r="D46">
         <v>139815</v>
-      </c>
-      <c r="D46">
-        <v>117023</v>
       </c>
       <c r="E46">
         <v>5888</v>
@@ -10824,10 +10824,10 @@
         <v>262726</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -10844,10 +10844,10 @@
         <v>111</v>
       </c>
       <c r="C47">
+        <v>1222790</v>
+      </c>
+      <c r="D47">
         <v>947103</v>
-      </c>
-      <c r="D47">
-        <v>1222790</v>
       </c>
       <c r="E47">
         <v>127343</v>
@@ -10856,10 +10856,10 @@
         <v>2297236</v>
       </c>
       <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
         <v>3</v>
-      </c>
-      <c r="H47">
-        <v>8</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -10876,10 +10876,10 @@
         <v>113</v>
       </c>
       <c r="C48">
+        <v>798005</v>
+      </c>
+      <c r="D48">
         <v>1244095</v>
-      </c>
-      <c r="D48">
-        <v>798005</v>
       </c>
       <c r="E48">
         <v>11956</v>
@@ -10888,10 +10888,10 @@
         <v>2054056</v>
       </c>
       <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
         <v>6</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -10908,10 +10908,10 @@
         <v>115</v>
       </c>
       <c r="C49">
+        <v>190893</v>
+      </c>
+      <c r="D49">
         <v>263822</v>
-      </c>
-      <c r="D49">
-        <v>190893</v>
       </c>
       <c r="E49">
         <v>98</v>
@@ -10920,10 +10920,10 @@
         <v>454813</v>
       </c>
       <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>2</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -10940,10 +10940,10 @@
         <v>117</v>
       </c>
       <c r="C50">
+        <v>1040071</v>
+      </c>
+      <c r="D50">
         <v>1003156</v>
-      </c>
-      <c r="D50">
-        <v>1040071</v>
       </c>
       <c r="E50">
         <v>20186</v>
@@ -10952,10 +10952,10 @@
         <v>2063413</v>
       </c>
       <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
         <v>5</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -10972,10 +10972,10 @@
         <v>119</v>
       </c>
       <c r="C51">
+        <v>93336</v>
+      </c>
+      <c r="D51">
         <v>92324</v>
-      </c>
-      <c r="D51">
-        <v>93336</v>
       </c>
       <c r="E51">
         <v>10555</v>
@@ -10984,10 +10984,10 @@
         <v>196215</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11009,7 +11009,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11057,10 +11057,10 @@
         <v>133</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>143015</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>2540</v>
@@ -11069,10 +11069,10 @@
         <v>145555</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -11089,10 +11089,10 @@
         <v>134</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>163514</v>
       </c>
       <c r="E3">
-        <v>163514</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>2786</v>
@@ -11101,10 +11101,10 @@
         <v>166300</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -11121,10 +11121,10 @@
         <v>135</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>133870</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>1294</v>
@@ -11133,10 +11133,10 @@
         <v>135164</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -11185,10 +11185,10 @@
         <v>134</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>152201</v>
       </c>
       <c r="E6">
-        <v>152201</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>51285</v>
@@ -11197,10 +11197,10 @@
         <v>203486</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -11249,10 +11249,10 @@
         <v>135</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>118000</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>22486</v>
@@ -11261,10 +11261,10 @@
         <v>140486</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -11281,10 +11281,10 @@
         <v>136</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>61120</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11293,10 +11293,10 @@
         <v>61120</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -11313,10 +11313,10 @@
         <v>137</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>64952</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11325,10 +11325,10 @@
         <v>64952</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>138</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>76059</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
       </c>
       <c r="F11">
         <v>15627</v>
@@ -11357,10 +11357,10 @@
         <v>91686</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11377,10 +11377,10 @@
         <v>139</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>113715</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -11389,10 +11389,10 @@
         <v>113715</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -11409,10 +11409,10 @@
         <v>140</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>82498</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
       </c>
       <c r="F13">
         <v>16008</v>
@@ -11421,10 +11421,10 @@
         <v>98506</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -11441,10 +11441,10 @@
         <v>141</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>80716</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
       </c>
       <c r="F14">
         <v>17246</v>
@@ -11453,10 +11453,10 @@
         <v>97962</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -11473,10 +11473,10 @@
         <v>142</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>129720</v>
       </c>
       <c r="E15">
-        <v>129720</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -11485,10 +11485,10 @@
         <v>129720</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -11505,10 +11505,10 @@
         <v>143</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>129446</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
       </c>
       <c r="F16">
         <v>32825</v>
@@ -11517,10 +11517,10 @@
         <v>162271</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -11601,10 +11601,10 @@
         <v>144</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -11621,10 +11621,10 @@
         <v>145</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -11641,10 +11641,10 @@
         <v>146</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>124452</v>
       </c>
       <c r="E21">
-        <v>124452</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>55612</v>
@@ -11653,10 +11653,10 @@
         <v>180064</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -11673,10 +11673,10 @@
         <v>147</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>90663</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
       </c>
       <c r="F22">
         <v>23</v>
@@ -11685,10 +11685,10 @@
         <v>90686</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -11705,10 +11705,10 @@
         <v>148</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -11725,10 +11725,10 @@
         <v>136</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -11745,10 +11745,10 @@
         <v>149</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -11765,10 +11765,10 @@
         <v>133</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>122380</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -11777,10 +11777,10 @@
         <v>122380</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -11861,10 +11861,10 @@
         <v>146</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>157284</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -11873,10 +11873,10 @@
         <v>157291</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -11989,10 +11989,10 @@
         <v>134</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>158765</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
       </c>
       <c r="F33">
         <v>27015</v>
@@ -12001,10 +12001,10 @@
         <v>185780</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -12021,10 +12021,10 @@
         <v>134</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>94658</v>
       </c>
       <c r="E34">
-        <v>94658</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>19648</v>
@@ -12033,10 +12033,10 @@
         <v>114306</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -12085,10 +12085,10 @@
         <v>133</v>
       </c>
       <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>168114</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
       </c>
       <c r="F36">
         <v>35209</v>
@@ -12097,10 +12097,10 @@
         <v>203323</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -12117,10 +12117,10 @@
         <v>135</v>
       </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>158830</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
       </c>
       <c r="F37">
         <v>3147</v>
@@ -12149,10 +12149,10 @@
         <v>143</v>
       </c>
       <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>158057</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
       </c>
       <c r="F38">
         <v>61875</v>
@@ -12161,10 +12161,10 @@
         <v>219932</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -12181,10 +12181,10 @@
         <v>144</v>
       </c>
       <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>164939</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
       </c>
       <c r="F39">
         <v>50000</v>
@@ -12193,10 +12193,10 @@
         <v>214939</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -12213,10 +12213,10 @@
         <v>145</v>
       </c>
       <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>166973</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
       </c>
       <c r="F40">
         <v>48128</v>
@@ -12225,10 +12225,10 @@
         <v>215101</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -12245,10 +12245,10 @@
         <v>151</v>
       </c>
       <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>176513</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
       </c>
       <c r="F41">
         <v>50401</v>
@@ -12257,10 +12257,10 @@
         <v>226914</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -12277,10 +12277,10 @@
         <v>133</v>
       </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>159120</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
       </c>
       <c r="F42">
         <v>57712</v>
@@ -12289,10 +12289,10 @@
         <v>216832</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -12309,10 +12309,10 @@
         <v>135</v>
       </c>
       <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>171902</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
       </c>
       <c r="F43">
         <v>54228</v>
@@ -12321,10 +12321,10 @@
         <v>226130</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -12341,10 +12341,10 @@
         <v>152</v>
       </c>
       <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>125515</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
       </c>
       <c r="F44">
         <v>33910</v>
@@ -12353,10 +12353,10 @@
         <v>159425</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -12373,10 +12373,10 @@
         <v>153</v>
       </c>
       <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>126308</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
       </c>
       <c r="F45">
         <v>15</v>
@@ -12385,10 +12385,10 @@
         <v>126323</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -12405,10 +12405,10 @@
         <v>154</v>
       </c>
       <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>181946</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
       </c>
       <c r="F46">
         <v>24922</v>
@@ -12417,10 +12417,10 @@
         <v>206868</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -12469,10 +12469,10 @@
         <v>145</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>125421</v>
       </c>
       <c r="E48">
-        <v>125421</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>36059</v>
@@ -12481,10 +12481,10 @@
         <v>161480</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -12661,10 +12661,10 @@
         <v>143</v>
       </c>
       <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>140110</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -12673,10 +12673,10 @@
         <v>140110</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -12693,10 +12693,10 @@
         <v>155</v>
       </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>90264</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -12705,10 +12705,10 @@
         <v>90264</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -12757,10 +12757,10 @@
         <v>133</v>
       </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>70033</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
       </c>
       <c r="F57">
         <v>48494</v>
@@ -12769,10 +12769,10 @@
         <v>118527</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -12789,10 +12789,10 @@
         <v>134</v>
       </c>
       <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>69405</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
       </c>
       <c r="F58">
         <v>29705</v>
@@ -12801,10 +12801,10 @@
         <v>99110</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -12821,10 +12821,10 @@
         <v>156</v>
       </c>
       <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>67040</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
       </c>
       <c r="F59">
         <v>41023</v>
@@ -12833,10 +12833,10 @@
         <v>108063</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -12853,10 +12853,10 @@
         <v>157</v>
       </c>
       <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>107095</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
       </c>
       <c r="F60">
         <v>46788</v>
@@ -12865,10 +12865,10 @@
         <v>153883</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -12885,10 +12885,10 @@
         <v>158</v>
       </c>
       <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>104423</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
       </c>
       <c r="F61">
         <v>91222</v>
@@ -12897,10 +12897,10 @@
         <v>195645</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -12917,10 +12917,10 @@
         <v>143</v>
       </c>
       <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>82510</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -12929,10 +12929,10 @@
         <v>82510</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -13077,10 +13077,10 @@
         <v>143</v>
       </c>
       <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>137987</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
       </c>
       <c r="F67">
         <v>12</v>
@@ -13089,10 +13089,10 @@
         <v>137999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -13109,10 +13109,10 @@
         <v>157</v>
       </c>
       <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
         <v>161075</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
       </c>
       <c r="F68">
         <v>18326</v>
@@ -13121,10 +13121,10 @@
         <v>179401</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -13141,10 +13141,10 @@
         <v>144</v>
       </c>
       <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
         <v>140315</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
       </c>
       <c r="F69">
         <v>52729</v>
@@ -13153,10 +13153,10 @@
         <v>193044</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -13173,10 +13173,10 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>115766</v>
       </c>
       <c r="E70">
-        <v>115766</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>77609</v>
@@ -13185,10 +13185,10 @@
         <v>193375</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -13205,10 +13205,10 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>111882</v>
       </c>
       <c r="E71">
-        <v>111882</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>66106</v>
@@ -13217,10 +13217,10 @@
         <v>177988</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -13301,10 +13301,10 @@
         <v>156</v>
       </c>
       <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>60253</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -13313,10 +13313,10 @@
         <v>60253</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -13333,10 +13333,10 @@
         <v>161</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>107268</v>
       </c>
       <c r="E75">
-        <v>107268</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -13345,10 +13345,10 @@
         <v>107268</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -13365,10 +13365,10 @@
         <v>159</v>
       </c>
       <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>61116</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
       </c>
       <c r="F76">
         <v>16572</v>
@@ -13377,10 +13377,10 @@
         <v>77688</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -13397,10 +13397,10 @@
         <v>136</v>
       </c>
       <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>68348</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
       </c>
       <c r="F77">
         <v>9897</v>
@@ -13409,10 +13409,10 @@
         <v>78245</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -13429,10 +13429,10 @@
         <v>158</v>
       </c>
       <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
         <v>76775</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
       </c>
       <c r="F78">
         <v>71464</v>
@@ -13441,10 +13441,10 @@
         <v>148239</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -13461,10 +13461,10 @@
         <v>160</v>
       </c>
       <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
         <v>68372</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -13473,10 +13473,10 @@
         <v>68372</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -13557,10 +13557,10 @@
         <v>145</v>
       </c>
       <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
         <v>133546</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
       </c>
       <c r="F82">
         <v>5448</v>
@@ -13569,10 +13569,10 @@
         <v>138994</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -13589,10 +13589,10 @@
         <v>151</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>150967</v>
       </c>
       <c r="E83">
-        <v>150967</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>47373</v>
@@ -13601,10 +13601,10 @@
         <v>198340</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -13621,10 +13621,10 @@
         <v>134</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>153187</v>
       </c>
       <c r="E84">
-        <v>153187</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>50808</v>
@@ -13633,10 +13633,10 @@
         <v>203995</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -13717,10 +13717,10 @@
         <v>134</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>201367</v>
       </c>
       <c r="E87">
-        <v>201367</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>2190</v>
@@ -13729,10 +13729,10 @@
         <v>203557</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>

--- a/data/extracted/Congressional Election Results by State (2006 - 110th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2006 - 110th).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3897C39A-DD3A-1B43-AC40-E6D2308EA91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96FEA66-4C63-0F4A-856C-E58EA7565189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="500" windowWidth="23300" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="23300" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -3004,13 +3004,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3189,7 +3190,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -4824,7 +4825,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -6313,8 +6314,40 @@
       <c r="C94" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A2:J89" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:J89" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10th"/>
+        <filter val="11th"/>
+        <filter val="12th"/>
+        <filter val="13th"/>
+        <filter val="14th"/>
+        <filter val="15th"/>
+        <filter val="16th"/>
+        <filter val="17th"/>
+        <filter val="19th"/>
+        <filter val="1st"/>
+        <filter val="20th"/>
+        <filter val="22nd"/>
+        <filter val="23rd"/>
+        <filter val="28th"/>
+        <filter val="2nd"/>
+        <filter val="31st"/>
+        <filter val="32nd"/>
+        <filter val="33rd"/>
+        <filter val="35th"/>
+        <filter val="37th"/>
+        <filter val="3rd"/>
+        <filter val="42nd"/>
+        <filter val="4th"/>
+        <filter val="5th"/>
+        <filter val="6th"/>
+        <filter val="7th"/>
+        <filter val="8th"/>
+        <filter val="9th"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="F17" formula="1"/>
@@ -7976,7 +8009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9AC8D-3E7A-A441-A07B-4BADC6C52F8E}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
